--- a/tests-doc/Тест-кейсы регистрация.xlsx
+++ b/tests-doc/Тест-кейсы регистрация.xlsx
@@ -5,6 +5,8 @@
   <sheets>
     <sheet state="visible" name="Registration-1-Number" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Registration-1-Mail" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Registration-2" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Registration-3" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="77">
   <si>
     <t>Тест-кейс ID</t>
   </si>
   <si>
-    <t>Recovery-1-Number</t>
+    <t>Registration-1-Number</t>
   </si>
   <si>
     <t>Позитивный</t>
@@ -44,9 +46,6 @@
     <t>Тестировщик</t>
   </si>
   <si>
-    <t>Шариков П. П.</t>
-  </si>
-  <si>
     <t>Онлайм Web</t>
   </si>
   <si>
@@ -155,6 +154,9 @@
     <t>Пользователь авторизован</t>
   </si>
   <si>
+    <t>Registration-1-Mail</t>
+  </si>
+  <si>
     <t>Регистрация по почте</t>
   </si>
   <si>
@@ -174,6 +176,75 @@
   </si>
   <si>
     <t>Вводится код, полученный по почте</t>
+  </si>
+  <si>
+    <t>Registration-2</t>
+  </si>
+  <si>
+    <t>Маскированный номер</t>
+  </si>
+  <si>
+    <t>Проверяет, что при отправке кода на номер телефона система отображает маскированный номер.</t>
+  </si>
+  <si>
+    <t>Имя - "Иван"</t>
+  </si>
+  <si>
+    <t>Фамилия - "Иванов"</t>
+  </si>
+  <si>
+    <t>Вводится заранее заданный номерт телефона</t>
+  </si>
+  <si>
+    <t>Отображается поле для ввода кода, отображается номер телефона, введенный ранее. Номер телефона маскирован.</t>
+  </si>
+  <si>
+    <t>Registration-3</t>
+  </si>
+  <si>
+    <t>Негативный</t>
+  </si>
+  <si>
+    <t>Граничные значения полей</t>
+  </si>
+  <si>
+    <t>Проверяет возможность ввести некооретный ввод в текстовые поля</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован. Открыта форма регистрации.</t>
+  </si>
+  <si>
+    <t>Имя - "И"</t>
+  </si>
+  <si>
+    <t>Имя введено, отображается сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Фамилия - "--"</t>
+  </si>
+  <si>
+    <t>Фамилия введена, отображается сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>3) Ввести почту в поле для почты</t>
+  </si>
+  <si>
+    <t>Почта - "123@321.23"</t>
+  </si>
+  <si>
+    <t>Почта введена, отображается сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Пароль - "12345a"</t>
+  </si>
+  <si>
+    <t>Пароль введен, отображается сообщение об ошибке</t>
+  </si>
+  <si>
+    <t>Пароль - "12345678"</t>
+  </si>
+  <si>
+    <t>Пользователь не авторизован</t>
   </si>
 </sst>
 </file>
@@ -349,6 +420,14 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -604,20 +683,18 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -627,52 +704,52 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" ht="95.25" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
@@ -689,13 +766,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="4"/>
@@ -704,13 +781,13 @@
     </row>
     <row r="10" ht="48.0" customHeight="1">
       <c r="A10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -719,13 +796,13 @@
     </row>
     <row r="11" ht="45.0" customHeight="1">
       <c r="A11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -734,13 +811,13 @@
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
@@ -749,13 +826,13 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -764,13 +841,13 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
@@ -779,10 +856,10 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -791,13 +868,13 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -844,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -880,20 +957,18 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -903,15 +978,15 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>47</v>
@@ -920,15 +995,15 @@
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" ht="59.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>48</v>
@@ -937,15 +1012,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" ht="95.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>49</v>
@@ -965,13 +1040,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="4"/>
@@ -980,13 +1055,13 @@
     </row>
     <row r="10" ht="48.0" customHeight="1">
       <c r="A10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
@@ -995,13 +1070,13 @@
     </row>
     <row r="11" ht="45.0" customHeight="1">
       <c r="A11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
@@ -1025,13 +1100,13 @@
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -1040,13 +1115,13 @@
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
@@ -1055,10 +1130,10 @@
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1067,14 +1142,548 @@
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.25"/>
+    <col customWidth="1" min="2" max="2" width="27.5"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="6" max="6" width="34.25"/>
+    <col customWidth="1" min="7" max="7" width="19.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="59.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="95.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="48.0" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="45.0" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="G5"/>
+    <hyperlink r:id="rId5" ref="G6"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.25"/>
+    <col customWidth="1" min="2" max="2" width="27.5"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="6" max="6" width="34.25"/>
+    <col customWidth="1" min="7" max="7" width="19.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="59.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="95.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="48.0" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="45.0" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
